--- a/biology/Médecine/Glande_endocrine/Glande_endocrine.xlsx
+++ b/biology/Médecine/Glande_endocrine/Glande_endocrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une glande endocrine est une glande interne qui sécrète des hormones dans la circulation sanguine directement, plutôt que via un canal comme une glande exocrine. Ces hormones exercent alors leur action spécifique sur des organes cellules ou récepteur distants. On trouve des glandes endocrines chez la plupart des animaux, y compris chez les invertébrés.
 Les hormones agissent comme des sortes de messagers biochimiques, régulant de nombreuses fonctions de l'organisme telles que la croissance et le développement, la différenciation sexuelle, la reproduction, le métabolisme, la pression artérielle, la glycémie et assure l'homéostasie de nombreux paramètres corporels
@@ -512,7 +524,9 @@
           <t>Fonctionnement du système endocrinien</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les animaux possèdent, en plus du système immunitaire, deux grands réseaux de communications internes : le système nerveux et le système endocrinien. L'appareil endocrinien transmet ses messages grâce à la sécrétion des hormones, généralement des peptides ou des protéines, tandis que le système nerveux utilise les neurones, qui libèrent des neurotransmetteurs dans les synapses pour transmettre l'influx nerveux à d'autres neurones. Mais ces deux systèmes ont des inter-relations profondes, puisque certains neurones synthétisent également des peptides, appelés neuropeptides, qui sont alors libérés dans la circulation sanguine : par exemple, chez les mammifères, les fibres nerveuses hypothalamiques à somatostatine ou à hormone thyréotrope (TRH) libèrent dans l'éminence médiane leurs produits de sécrétion, qui atteignent l'hypophyse antérieure par l'intermédiaire des vaisseaux du système porte hypothalamo-hypophysaire.
 Les épithéliums glandulaires endocrines peuvent être sous forme :
@@ -551,7 +565,9 @@
           <t>Principales glandes endocrines chez les vertébrés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hypothalamus
 Hypophyse
@@ -589,7 +605,9 @@
           <t>Principales glandes endocrines chez les invertébrés (arthropodes)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Glande de mue
 Ovaire ou testicule
